--- a/docs/samples/4/Financial_Report.xlsx
+++ b/docs/samples/4/Financial_Report.xlsx
@@ -7,7 +7,16 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="_2_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="_2_3_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="_2_3_4_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="_2_3_4_5_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="_2_3_4_5_6_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="_2_3_4_5_6_7_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="_2_3_4_5_6_7_8_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="_2_3_4_5_6_7_8_9_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,19 +24,287 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+  <si>
+    <t>12 Months Ended</t>
+  </si>
+  <si>
+    <t>Jun. 30, 2018</t>
+  </si>
+  <si>
+    <t>Cover [Line Items]</t>
+  </si>
+  <si>
+    <t>Document Title</t>
+  </si>
+  <si>
+    <t>CAFR</t>
+  </si>
+  <si>
+    <t>Name of Government</t>
+  </si>
+  <si>
+    <t>City of Falls Church, Virginia</t>
+  </si>
+  <si>
+    <t>Fiscal Start Date</t>
+  </si>
+  <si>
+    <t>Jul. 1,
+		2017</t>
+  </si>
+  <si>
+    <t>Fiscal End Date</t>
+  </si>
+  <si>
+    <t>Jun. 30,
+		2018</t>
+  </si>
+  <si>
+    <t>Name of State</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Letter of Transmittal [Line Items]</t>
+  </si>
+  <si>
+    <t>Type of Government</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Date of Transmittal</t>
+  </si>
+  <si>
+    <t>Nov. 30,
+		2018</t>
+  </si>
+  <si>
+    <t>Audit Letter [Line Items]</t>
+  </si>
+  <si>
+    <t>Date of Audit Opinion</t>
+  </si>
+  <si>
+    <t>Name of Audit Firm</t>
+  </si>
+  <si>
+    <t>Brown, Edwards &amp; Cº LLP</t>
+  </si>
+  <si>
+    <t>Audit Opinion</t>
+  </si>
+  <si>
+    <t>Unmodified</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Primary Government Activities [Member] - Accrual, Basis of Accounting [Member] - Governmental Type Activity [Member]</t>
+  </si>
+  <si>
+    <t>Jun. 30, 2018USD ($)</t>
+  </si>
+  <si>
+    <t>Assets [Abstract]</t>
+  </si>
+  <si>
+    <t>Assets, Total</t>
+  </si>
+  <si>
+    <t>Deferred Outflows Of Resources</t>
+  </si>
+  <si>
+    <t>Current [Member]</t>
+  </si>
+  <si>
+    <t>Cash and Cash Equivalents</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Receivables, Net</t>
+  </si>
+  <si>
+    <t>Due From Related Party</t>
+  </si>
+  <si>
+    <t>Prepaid Items</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Noncurrent [Member]</t>
+  </si>
+  <si>
+    <t>Net Pension Asset/(Liability)</t>
+  </si>
+  <si>
+    <t>Net OPEB Asset/(Liability)</t>
+  </si>
+  <si>
+    <t>Liabilities [Abstract]</t>
+  </si>
+  <si>
+    <t>Liabilities, Total</t>
+  </si>
+  <si>
+    <t>Deferred Inflows of Resources</t>
+  </si>
+  <si>
+    <t>Component Units [Member]</t>
+  </si>
+  <si>
+    <t>Due to Related Party</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Noncurrent Liabilities Due Less Than One Year</t>
+  </si>
+  <si>
+    <t>Noncurrent Liabilities Due One Year or Later</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Primary Government Activities [Member] - Accrual, Basis of Accounting [Member] - Governmental Type Activity [Member] - USD ($)</t>
+  </si>
+  <si>
+    <t>Jul. 01, 2017</t>
+  </si>
+  <si>
+    <t>Net Position [Abstract]</t>
+  </si>
+  <si>
+    <t>Net Investment in Capital Assets</t>
+  </si>
+  <si>
+    <t>Net Position Unrestricted</t>
+  </si>
+  <si>
+    <t>Net Position, Total</t>
+  </si>
+  <si>
+    <t>General Revenues [Abstract]</t>
+  </si>
+  <si>
+    <t>General Revenues, Total</t>
+  </si>
+  <si>
+    <t>Net Position [Roll Forward]</t>
+  </si>
+  <si>
+    <t>Changes in Net Position</t>
+  </si>
+  <si>
+    <t>Net Position, Ending Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Primary Government Activities [Member] - Governmental Type Activity [Member] - Accrual, Basis of Accounting [Member]</t>
+  </si>
+  <si>
+    <t>Statement of Activities [Line Items]</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Program Revenues [Abstract]</t>
+  </si>
+  <si>
+    <t>Charges for Services</t>
+  </si>
+  <si>
+    <t>Operating Grants and Contributions</t>
+  </si>
+  <si>
+    <t>Capital Grants and Contributions</t>
+  </si>
+  <si>
+    <t>Program Revenues, Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Primary Government Activities [Member] - Modified Accrual, Basis of Accounting [Member] - Governmental Type Activity [Member] - Major [Member] - USD ($)</t>
+  </si>
+  <si>
+    <t>Governmental Funds [Member]</t>
+  </si>
+  <si>
+    <t>Balance Sheet Governmental Funds [Line Items]</t>
+  </si>
+  <si>
+    <t>Nonspendable Fund Balance</t>
+  </si>
+  <si>
+    <t>Restricted Fund Balance</t>
+  </si>
+  <si>
+    <t>Committed Fund Balance</t>
+  </si>
+  <si>
+    <t>Assigned Fund Balance</t>
+  </si>
+  <si>
+    <t>Unassigned Fund Balance</t>
+  </si>
+  <si>
+    <t>Fund Balance, Total</t>
+  </si>
+  <si>
+    <t>General Fund [Member]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Primary Government Activities [Member] - Modified Accrual, Basis of Accounting [Member] - Governmental Type Activity [Member] - Major [Member]</t>
+  </si>
+  <si>
+    <t>Revenues [Abstract]</t>
+  </si>
+  <si>
+    <t>Revenues, Total</t>
+  </si>
+  <si>
+    <t>Expenditures [Abstract]</t>
+  </si>
+  <si>
+    <t>Expenditures</t>
+  </si>
+  <si>
+    <t>Other Financing Sources and Uses [Abstract]</t>
+  </si>
+  <si>
+    <t>Other Financing Sources and Uses Including Transfers, Net</t>
+  </si>
+  <si>
+    <t>Fund Balance [Roll-forward]</t>
+  </si>
+  <si>
+    <t>Change in Fund Balance</t>
+  </si>
+  <si>
+    <t>Fund Balance, Ending Balance</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt formatCode="_(&quot;$ &quot;#,##0_);_(&quot;$ &quot;(#,##0)" numFmtId="164"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font/>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,8 +327,26 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -349,14 +644,1012 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="19"/>
+    <col customWidth="1" max="2" min="2" width="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="80"/>
+    <col customWidth="1" max="2" min="2" width="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>91778527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>110643711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>22954856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>4089672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>60137719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>87405889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>85375721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>-219634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>1810534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>31233917</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="35"/>
+    <col customWidth="1" max="2" min="2" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="26"/>
+    <col customWidth="1" max="2" min="2" width="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="80"/>
+    <col customWidth="1" max="2" min="2" width="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>194169855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>3876056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>42987661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>26053512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>7757608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>3875764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>60913</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>137720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>10960100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>2350081</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="80"/>
+    <col customWidth="1" max="2" min="2" width="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>91182952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>11552773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>5398638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>7810876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>7697285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>65843652</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="80"/>
+    <col customWidth="1" max="2" min="2" width="14"/>
+    <col customWidth="1" max="3" min="3" width="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>48269980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>38477078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>95310186</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>113605996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="80"/>
+    <col customWidth="1" max="2" min="2" width="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>80020965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>9726154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>95310186</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="80"/>
+    <col customWidth="1" max="2" min="2" width="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>83800976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>5236572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>2319112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>4256317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>-71988975</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="80"/>
+    <col customWidth="1" max="2" min="2" width="16"/>
+    <col customWidth="1" max="3" min="3" width="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>197513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>20812362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>20326828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>2609806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>16191210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>60137719</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>56048047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>197513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>923689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>11311699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>2609806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>16191210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>31233917</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>29423383</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>